--- a/biology/Histoire de la zoologie et de la botanique/Albrecht_Zimmermann/Albrecht_Zimmermann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albrecht_Zimmermann/Albrecht_Zimmermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Wilhelm Albrecht Zimmermann (né à Brunswick, le 23 avril 1860 et mort à Berlin, le 22 février 1931) est un botaniste allemand.
-La plante Cyphostemma zimmermannii dont il a récolté le type[1] lui est dédiée[2].
+La plante Cyphostemma zimmermannii dont il a récolté le type lui est dédiée.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Der Kaffee, Deutscher Auslandsverlag, 1926, 204 p.</t>
         </is>
